--- a/data/imputed/verification/compare-2020.xlsx
+++ b/data/imputed/verification/compare-2020.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/ushouse/temp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/ushouse/data/imputed/verification/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{759D7BFB-060C-0B46-A478-60C08041ECF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5141452-5B3D-A542-B614-35881BAC9139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="1000" windowWidth="26860" windowHeight="16440" xr2:uid="{BC5982F4-13C5-4448-86FA-7470153F1C65}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{EE865F70-0C72-2944-9E24-55571EB7B0CD}" name="compare-2020" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/alecramsay/Documents/dev/ushouse/temp/compare-2020.txt" comma="1">
+    <textPr sourceFile="/Users/alecramsay/Documents/dev/ushouse/temp/compare-2020.txt" comma="1">
       <textFields count="14">
         <textField type="text"/>
         <textField type="text"/>
@@ -141,10 +141,10 @@
     <t>OK: Aggregated rounding</t>
   </si>
   <si>
-    <t>INVESTIGATE</t>
-  </si>
-  <si>
     <t>OK: data error fixed</t>
+  </si>
+  <si>
+    <t>Data error in manual spreadsheet.</t>
   </si>
 </sst>
 </file>
@@ -194,7 +194,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -204,7 +204,6 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -529,7 +528,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O7" sqref="O7"/>
+      <selection pane="bottomRight" activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -548,7 +547,7 @@
     <col min="12" max="12" width="6.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8.1640625" style="7" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="7.83203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="29.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -733,7 +732,7 @@
         <v>0.40739999999999998</v>
       </c>
       <c r="O4" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
@@ -779,7 +778,6 @@
       <c r="N5" s="7">
         <v>0.40739999999999998</v>
       </c>
-      <c r="O5" s="9"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
@@ -824,8 +822,8 @@
       <c r="N6" s="7">
         <v>1</v>
       </c>
-      <c r="O6" s="9" t="s">
-        <v>26</v>
+      <c r="O6" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
